--- a/xlsx/联合国安全理事会决议_intext.xlsx
+++ b/xlsx/联合国安全理事会决议_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>联合国安全理事会决议</t>
   </si>
@@ -29,7 +29,7 @@
     <t>联合国安全理事会决议 (1940年代)</t>
   </si>
   <si>
-    <t>政策_政策_美國_联合国安全理事会决议</t>
+    <t>政策_政策_美国_联合国安全理事会决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE_(1950%E5%B9%B4%E4%BB%A3)</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>朝鮮戰爭</t>
+    <t>朝鲜战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%BA%BA%E6%B0%91%E8%BB%8D</t>
   </si>
   <si>
-    <t>朝鮮人民軍</t>
+    <t>朝鲜人民军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B7%AF</t>
   </si>
   <si>
-    <t>北緯</t>
+    <t>北纬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E7%90%86%E4%BC%9A84%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>聯合國軍</t>
+    <t>联合国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E7%90%86%E4%BC%9A242%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E6%9C%9D%E9%B2%9C%E6%A0%B8%E8%AF%95%E9%AA%8C</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
+    <t>联合国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E6%88%90%E5%91%98%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -305,31 +305,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%8A%E7%A4%BE%E6%9C%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國經濟及社會理事會</t>
+    <t>联合国经济及社会理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國秘書處</t>
+    <t>联合国秘书处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
+    <t>国际法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A8%97%E7%AE%A1%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國託管理事會</t>
+    <t>联合国讬管理事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_specialized_agencies_of_the_United_Nations</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E4%BA%8B%E5%8B%99%E9%AB%98%E7%B4%9A%E5%B0%88%E5%93%A1%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國人權事務高級專員辦事處</t>
+    <t>联合国人权事务高级专员办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Capital_Development_Fund</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E6%B3%95%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國國際貿易法委員會</t>
+    <t>联合国国际贸易法委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%B4%B8%E6%98%93%E5%92%8C%E5%8F%91%E5%B1%95%E4%BC%9A%E8%AE%AE</t>
@@ -377,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國環境署</t>
+    <t>联合国环境署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNEP_OzonAction</t>
@@ -401,31 +398,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%8F%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>聯合國人口基金</t>
+    <t>联合国人口基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%B1%85%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國人居署</t>
+    <t>联合国人居署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9B%A3%E6%B0%91%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國難民署</t>
+    <t>联合国难民署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權理事會</t>
+    <t>联合国人权理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Institute_for_Disarmament_Research</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聯合國大學</t>
+    <t>联合国大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNU-OP</t>
@@ -491,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B3%A7%E9%A3%9F%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>世界糧食計劃署</t>
+    <t>世界粮食计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%84%9B%E6%BB%8B%E7%97%85%E8%81%AF%E5%90%88%E8%A6%8F%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國愛滋病聯合規劃署</t>
+    <t>联合国爱滋病联合规划署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Interregional_Crime_and_Justice_Research_Institute</t>
@@ -509,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%99%BC%E5%B1%95%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>聯合國社會發展研究所</t>
+    <t>联合国社会发展研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際民用航空組織</t>
+    <t>国际民用航空组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Fund_for_Agricultural_Development</t>
@@ -527,25 +524,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際海事組織</t>
+    <t>国际海事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E4%BF%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際電信聯盟</t>
+    <t>国际电信联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Assistance_Framework</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E8%82%B2%E3%80%81%E7%A7%91%E5%AD%B8%E5%8F%8A%E6%96%87%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教育、科學及文化組織</t>
+    <t>联合国教育、科学及文化组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Fund_for_International_Partnerships_(UNFIP)</t>
@@ -593,31 +590,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E9%83%B5%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬國郵政聯盟</t>
+    <t>万国邮政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界智慧財產權組織</t>
+    <t>世界智慧财产权组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%95%8F%E9%A1%8C%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>前南斯拉夫問題國際刑事法庭</t>
+    <t>前南斯拉夫问题国际刑事法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>獅子山特別法庭</t>
+    <t>狮子山特别法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_Panels_of_the_Dili_District_Court</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%81%93%E4%BA%8B%E5%8B%99%E5%8D%94%E8%AA%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>聯合國人道事務協調廳</t>
+    <t>联合国人道事务协调厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_Disarmament_Affairs</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%AF%92%E5%93%81%E5%92%8C%E7%8A%AF%E7%BD%AA%E5%95%8F%E9%A1%8C%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>聯合國毒品和犯罪問題辦公室</t>
+    <t>联合国毒品和犯罪问题办公室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_the_High_Representative_for_the_Least_Developed_Countries,_Landlocked_Developing_Countries_and_Small_Island_Developing_States</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B8%BD%E9%83%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>聯合國總部大樓</t>
+    <t>联合国总部大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%97%A5%E5%86%85%E7%93%A6%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A5%88%E6%B4%9B%E6%AF%94%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國奈洛比辦事處</t>
+    <t>联合国奈洛比办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_organizations_by_location</t>
@@ -773,25 +770,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%8D%80%E5%9F%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國區域集團</t>
+    <t>联合国区域集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國安全理事會常任理事國</t>
+    <t>联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Union_and_the_United_Nations</t>
@@ -809,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%AD%A6%E5%AF%9F</t>
@@ -827,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%B1%E5%90%8C%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>聯合國共同宣言</t>
+    <t>联合国共同宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8C%81%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>維持和平</t>
+    <t>维持和平</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
@@ -857,13 +854,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國決議</t>
+    <t>联合国决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_resolutions_at_the_sixty-sixth_session_of_the_United_Nations_General_Assembly</t>
@@ -881,9 +878,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會決議</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_Security_Council_resolutions_concerning_Cyprus</t>
   </si>
   <si>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>聯合國憲章</t>
+    <t>联合国宪章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Global_Compact</t>
@@ -1013,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%80%9A%E8%A1%8C%E8%AD%89</t>
   </si>
   <si>
-    <t>聯合國通行證</t>
+    <t>联合国通行证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Official_languages_of_the_United_Nations</t>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%95%A6%E6%A3%AE%E6%9E%97%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>布列敦森林體系</t>
+    <t>布列敦森林体系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delivering_as_One</t>
@@ -1049,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>千禧高峰會</t>
+    <t>千禧高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B9%B4%E5%8F%91%E5%B1%95%E7%9B%AE%E6%A0%87</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>聯合國改革</t>
+    <t>联合国改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
@@ -1073,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BA%AA%E5%BF%B5%E6%B4%BB%E5%8A%A8</t>
@@ -1085,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>聯合國日</t>
+    <t>联合国日</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_television_film_series</t>
@@ -1097,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96%E4%B8%AD%E7%9A%84%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>大眾文化中的聯合國</t>
+    <t>大众文化中的联合国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comprehensive_Nuclear-Test-Ban_Treaty_Organization</t>
@@ -1109,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>國際原子能機構</t>
+    <t>国际原子能机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B5%B7%E5%BA%95%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -1133,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>禁止化學武器組織</t>
+    <t>禁止化学武器组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Military_Observer</t>
@@ -1163,9 +1157,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%86%9B</t>
   </si>
   <si>
-    <t>联合国军</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Unified_Task_Force</t>
   </si>
   <si>
@@ -1181,13 +1172,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A2758%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
   </si>
   <si>
-    <t>联合国大会2758号决议</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -1199,13 +1187,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>联合国改革</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
   </si>
   <si>
-    <t>中華民國 (大陸時期)</t>
+    <t>中华民国 (大陆时期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1235,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -1259,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1271,19 +1256,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -3087,7 +3072,7 @@
         <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3113,10 +3098,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3142,10 +3127,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3171,10 +3156,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3200,10 +3185,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3229,10 +3214,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3258,10 +3243,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3287,10 +3272,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3316,10 +3301,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3345,10 +3330,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3374,10 +3359,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3403,10 +3388,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3432,10 +3417,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3461,10 +3446,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3490,10 +3475,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3519,10 +3504,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3548,10 +3533,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3577,10 +3562,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3606,10 +3591,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3635,10 +3620,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3664,10 +3649,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3693,10 +3678,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3722,10 +3707,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3751,10 +3736,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3780,10 +3765,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3809,10 +3794,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3838,10 +3823,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3867,10 +3852,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3896,10 +3881,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3925,10 +3910,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3954,10 +3939,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3983,10 +3968,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4012,10 +3997,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4041,10 +4026,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4070,10 +4055,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4099,10 +4084,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4128,10 +4113,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4157,10 +4142,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4186,10 +4171,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4215,10 +4200,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4244,10 +4229,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4273,10 +4258,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4302,10 +4287,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4331,10 +4316,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4360,10 +4345,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4389,10 +4374,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4418,10 +4403,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4447,10 +4432,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4476,10 +4461,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4505,10 +4490,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4534,10 +4519,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4563,10 +4548,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4592,10 +4577,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4621,10 +4606,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4650,10 +4635,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4679,10 +4664,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4708,10 +4693,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4737,10 +4722,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4766,10 +4751,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4795,10 +4780,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4824,10 +4809,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4853,10 +4838,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4882,10 +4867,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4911,10 +4896,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4940,10 +4925,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4969,10 +4954,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4998,10 +4983,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5027,10 +5012,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5056,10 +5041,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5085,10 +5070,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5114,10 +5099,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5143,10 +5128,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5172,10 +5157,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5201,10 +5186,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5230,10 +5215,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5259,10 +5244,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5288,10 +5273,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5317,10 +5302,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5346,10 +5331,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5375,10 +5360,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5404,10 +5389,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -5433,10 +5418,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5462,10 +5447,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5491,10 +5476,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5520,10 +5505,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5549,10 +5534,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5578,10 +5563,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5607,10 +5592,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5636,10 +5621,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5665,10 +5650,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5723,10 +5708,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5752,10 +5737,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5781,10 +5766,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5810,10 +5795,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5839,10 +5824,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -5868,10 +5853,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5897,10 +5882,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5926,10 +5911,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5955,10 +5940,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5984,10 +5969,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6013,10 +5998,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6042,10 +6027,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6071,10 +6056,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6100,10 +6085,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6129,10 +6114,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6158,10 +6143,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6187,10 +6172,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6216,10 +6201,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6245,10 +6230,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6274,10 +6259,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6303,10 +6288,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6332,10 +6317,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6361,10 +6346,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6390,10 +6375,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6419,10 +6404,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6448,10 +6433,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6477,10 +6462,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6506,10 +6491,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6535,10 +6520,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6564,10 +6549,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6593,10 +6578,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6622,10 +6607,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6651,10 +6636,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6680,10 +6665,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6709,10 +6694,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6738,10 +6723,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6767,10 +6752,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6796,10 +6781,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6825,10 +6810,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6854,10 +6839,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6883,10 +6868,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6912,10 +6897,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6941,10 +6926,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6970,10 +6955,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6999,10 +6984,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7028,10 +7013,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7057,10 +7042,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7086,10 +7071,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7115,10 +7100,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7144,10 +7129,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7173,10 +7158,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7202,10 +7187,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7260,10 +7245,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7289,10 +7274,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7318,10 +7303,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7347,10 +7332,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7376,10 +7361,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7405,10 +7390,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7434,10 +7419,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>281</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7463,10 +7448,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7492,10 +7477,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7521,10 +7506,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F203" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7550,10 +7535,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7579,10 +7564,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7608,10 +7593,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G206" t="n">
         <v>4</v>
@@ -7637,10 +7622,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -7666,10 +7651,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -7695,10 +7680,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -7724,10 +7709,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7782,10 +7767,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7811,10 +7796,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7840,10 +7825,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7869,10 +7854,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7898,10 +7883,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7927,10 +7912,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7956,10 +7941,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7985,10 +7970,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8014,10 +7999,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8043,10 +8028,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>

--- a/xlsx/联合国安全理事会决议_intext.xlsx
+++ b/xlsx/联合国安全理事会决议_intext.xlsx
@@ -29,7 +29,7 @@
     <t>联合国安全理事会决议 (1940年代)</t>
   </si>
   <si>
-    <t>政策_政策_美國_联合国安全理事会决议</t>
+    <t>体育运动_体育运动_南非_联合国安全理事会决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE_(1950%E5%B9%B4%E4%BB%A3)</t>
